--- a/Dan/DataTypes.xlsx
+++ b/Dan/DataTypes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aissa\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samcr\Desktop\Summer Research\Drasil\Dan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8B50320-562C-4C1D-A09D-E50ABDED82D6}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56685966-0EE3-4841-B3B0-D0AAAA61413D}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -445,12 +445,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1113,71 +1113,71 @@
   <dimension ref="A1:AF33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="W33" sqref="W33"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="5.44140625" customWidth="1"/>
-    <col min="5" max="5" width="8.44140625" customWidth="1"/>
+    <col min="1" max="1" width="20.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.53125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.53125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="5.46484375" customWidth="1"/>
+    <col min="5" max="5" width="8.46484375" customWidth="1"/>
     <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" customWidth="1"/>
-    <col min="8" max="8" width="6.5546875" customWidth="1"/>
-    <col min="9" max="9" width="5.44140625" customWidth="1"/>
+    <col min="7" max="7" width="11.53125" customWidth="1"/>
+    <col min="8" max="8" width="6.53125" customWidth="1"/>
+    <col min="9" max="9" width="5.46484375" customWidth="1"/>
     <col min="10" max="10" width="9" customWidth="1"/>
-    <col min="11" max="11" width="6.5546875" customWidth="1"/>
+    <col min="11" max="11" width="6.53125" customWidth="1"/>
     <col min="12" max="12" width="9" customWidth="1"/>
-    <col min="13" max="14" width="8.5546875" customWidth="1"/>
-    <col min="15" max="15" width="8.44140625" customWidth="1"/>
-    <col min="16" max="16" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.5546875" customWidth="1"/>
-    <col min="18" max="18" width="9.5546875" customWidth="1"/>
+    <col min="13" max="14" width="8.53125" customWidth="1"/>
+    <col min="15" max="15" width="8.46484375" customWidth="1"/>
+    <col min="16" max="16" width="4.86328125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.53125" customWidth="1"/>
+    <col min="18" max="18" width="9.53125" customWidth="1"/>
     <col min="19" max="19" width="8.33203125" customWidth="1"/>
-    <col min="20" max="20" width="6.5546875" customWidth="1"/>
-    <col min="21" max="21" width="14.44140625" customWidth="1"/>
+    <col min="20" max="20" width="6.53125" customWidth="1"/>
+    <col min="21" max="21" width="14.46484375" customWidth="1"/>
     <col min="22" max="22" width="6.6640625" customWidth="1"/>
-    <col min="23" max="23" width="3.109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="3.1328125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="23.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="20.46484375" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="24.33203125" customWidth="1"/>
     <col min="30" max="30" width="17.6640625" customWidth="1"/>
     <col min="31" max="31" width="12.6640625" customWidth="1"/>
-    <col min="32" max="32" width="26.44140625" customWidth="1"/>
+    <col min="32" max="32" width="26.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.45">
       <c r="C1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
-      <c r="V1" s="11"/>
-      <c r="W1" s="15"/>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="12"/>
+      <c r="W1" s="13"/>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -1247,19 +1247,19 @@
       <c r="W2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="X2" s="12" t="s">
+      <c r="X2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="Y2" s="13"/>
-      <c r="Z2" s="13"/>
-      <c r="AA2" s="13"/>
-      <c r="AB2" s="13"/>
-      <c r="AC2" s="13"/>
-      <c r="AD2" s="13"/>
-      <c r="AE2" s="13"/>
+      <c r="Y2" s="15"/>
+      <c r="Z2" s="15"/>
+      <c r="AA2" s="15"/>
+      <c r="AB2" s="15"/>
+      <c r="AC2" s="15"/>
+      <c r="AD2" s="15"/>
+      <c r="AE2" s="15"/>
       <c r="AF2" s="5"/>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -1285,7 +1285,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -1314,7 +1314,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -1340,8 +1340,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A6" s="10" t="s">
         <v>33</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -1378,8 +1378,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A7" s="14"/>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A7" s="10"/>
       <c r="B7" s="8" t="s">
         <v>36</v>
       </c>
@@ -1417,7 +1417,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -1444,8 +1444,8 @@
       </c>
       <c r="W8" s="3"/>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A9" s="14" t="s">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A9" s="10" t="s">
         <v>43</v>
       </c>
       <c r="B9" s="8" t="s">
@@ -1461,15 +1461,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A10" s="14"/>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A10" s="10"/>
       <c r="B10" s="8" t="s">
         <v>101</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G10" t="s">
@@ -1478,7 +1478,7 @@
       <c r="I10" t="s">
         <v>20</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="K10" s="3" t="s">
         <v>20</v>
       </c>
       <c r="P10" s="6" t="s">
@@ -1491,8 +1491,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A11" s="14"/>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A11" s="10"/>
       <c r="B11" s="8" t="s">
         <v>45</v>
       </c>
@@ -1508,7 +1508,7 @@
       <c r="I11" t="s">
         <v>20</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K11" s="3" t="s">
         <v>20</v>
       </c>
       <c r="N11" t="s">
@@ -1524,8 +1524,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A12" s="14" t="s">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A12" s="10" t="s">
         <v>46</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -1537,7 +1537,7 @@
       <c r="H12" t="s">
         <v>20</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K12" s="3" t="s">
         <v>20</v>
       </c>
       <c r="L12" t="s">
@@ -1562,8 +1562,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A13" s="14"/>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A13" s="10"/>
       <c r="B13" s="8" t="s">
         <v>50</v>
       </c>
@@ -1583,7 +1583,7 @@
         <v>20</v>
       </c>
       <c r="J13" s="6"/>
-      <c r="K13" t="s">
+      <c r="K13" s="3" t="s">
         <v>20</v>
       </c>
       <c r="L13" t="s">
@@ -1608,7 +1608,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>51</v>
       </c>
@@ -1628,7 +1628,7 @@
         <v>20</v>
       </c>
       <c r="J14" s="6"/>
-      <c r="K14" s="2" t="s">
+      <c r="K14" s="3" t="s">
         <v>20</v>
       </c>
       <c r="M14" t="s">
@@ -1650,7 +1650,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>53</v>
       </c>
@@ -1663,7 +1663,7 @@
       <c r="J15" t="s">
         <v>20</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="K15" s="3" t="s">
         <v>20</v>
       </c>
       <c r="M15" t="s">
@@ -1688,7 +1688,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>55</v>
       </c>
@@ -1710,7 +1710,7 @@
       <c r="J16" t="s">
         <v>20</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="K16" s="3" t="s">
         <v>20</v>
       </c>
       <c r="N16" t="s">
@@ -1726,7 +1726,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>58</v>
       </c>
@@ -1752,7 +1752,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>62</v>
       </c>
@@ -1799,8 +1799,8 @@
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A19" s="14" t="s">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A19" s="10" t="s">
         <v>68</v>
       </c>
       <c r="B19" s="8" t="s">
@@ -1822,8 +1822,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A20" s="14"/>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A20" s="10"/>
       <c r="B20" s="8" t="s">
         <v>70</v>
       </c>
@@ -1846,7 +1846,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>72</v>
       </c>
@@ -1872,7 +1872,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>75</v>
       </c>
@@ -1904,7 +1904,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>77</v>
       </c>
@@ -1942,7 +1942,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>79</v>
       </c>
@@ -1971,7 +1971,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>98</v>
       </c>
@@ -1983,7 +1983,7 @@
       </c>
       <c r="Z25" s="6"/>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>84</v>
       </c>
@@ -2003,7 +2003,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="B27" s="8" t="s">
         <v>86</v>
       </c>
@@ -2032,7 +2032,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>87</v>
       </c>
@@ -2082,7 +2082,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="B29" s="8" t="s">
         <v>89</v>
       </c>
@@ -2120,7 +2120,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>90</v>
       </c>
@@ -2161,7 +2161,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>92</v>
       </c>
@@ -2193,7 +2193,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>94</v>
       </c>
@@ -2234,7 +2234,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>96</v>
       </c>

--- a/Dan/DataTypes.xlsx
+++ b/Dan/DataTypes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samcr\Desktop\Summer Research\Drasil\Dan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56685966-0EE3-4841-B3B0-D0AAAA61413D}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC8B61F2-2C95-4D35-BDB0-BA78E17C4C69}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="368" yWindow="368" windowWidth="15389" windowHeight="9532" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="111">
   <si>
     <t>File Name</t>
   </si>
@@ -33,9 +33,6 @@
     <t>Data Type</t>
   </si>
   <si>
-    <t>Chunk</t>
-  </si>
-  <si>
     <t>Class Instances</t>
   </si>
   <si>
@@ -336,7 +333,31 @@
     <t>HasShortName</t>
   </si>
   <si>
-    <t>Folder</t>
+    <t>Package</t>
+  </si>
+  <si>
+    <t>drasil-</t>
+  </si>
+  <si>
+    <t>DataDefinition.hs</t>
+  </si>
+  <si>
+    <t>DataDefinition</t>
+  </si>
+  <si>
+    <t>theory</t>
+  </si>
+  <si>
+    <t>FilePath</t>
+  </si>
+  <si>
+    <t>Theory/Drasil/</t>
+  </si>
+  <si>
+    <t>DefiningExpr</t>
+  </si>
+  <si>
+    <t>_scp :: ScopeType</t>
   </si>
 </sst>
 </file>
@@ -434,23 +455,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1110,1172 +1135,1173 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF33"/>
+  <dimension ref="A1:AH34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="108" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Z28" sqref="Z28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="20.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.53125" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.53125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="5.46484375" customWidth="1"/>
-    <col min="5" max="5" width="8.46484375" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.53125" customWidth="1"/>
-    <col min="8" max="8" width="6.53125" customWidth="1"/>
-    <col min="9" max="9" width="5.46484375" customWidth="1"/>
-    <col min="10" max="10" width="9" customWidth="1"/>
-    <col min="11" max="11" width="6.53125" customWidth="1"/>
+    <col min="1" max="1" width="9.06640625" style="16"/>
+    <col min="2" max="2" width="12.265625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.1328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.53125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.86328125" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.53125" customWidth="1"/>
+    <col min="9" max="9" width="6.53125" customWidth="1"/>
+    <col min="10" max="11" width="5.46484375" customWidth="1"/>
     <col min="12" max="12" width="9" customWidth="1"/>
-    <col min="13" max="14" width="8.53125" customWidth="1"/>
-    <col min="15" max="15" width="8.46484375" customWidth="1"/>
-    <col min="16" max="16" width="4.86328125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.53125" customWidth="1"/>
-    <col min="18" max="18" width="9.53125" customWidth="1"/>
-    <col min="19" max="19" width="8.33203125" customWidth="1"/>
-    <col min="20" max="20" width="6.53125" customWidth="1"/>
-    <col min="21" max="21" width="14.46484375" customWidth="1"/>
-    <col min="22" max="22" width="6.6640625" customWidth="1"/>
-    <col min="23" max="23" width="3.1328125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="23.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="20.46484375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="24.33203125" customWidth="1"/>
-    <col min="30" max="30" width="17.6640625" customWidth="1"/>
-    <col min="31" max="31" width="12.6640625" customWidth="1"/>
-    <col min="32" max="32" width="26.46484375" customWidth="1"/>
+    <col min="13" max="13" width="6.53125" customWidth="1"/>
+    <col min="14" max="14" width="9" customWidth="1"/>
+    <col min="15" max="16" width="8.53125" customWidth="1"/>
+    <col min="17" max="17" width="8.46484375" customWidth="1"/>
+    <col min="18" max="18" width="4.86328125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.53125" customWidth="1"/>
+    <col min="20" max="20" width="9.53125" customWidth="1"/>
+    <col min="21" max="21" width="8.33203125" customWidth="1"/>
+    <col min="22" max="22" width="6.53125" customWidth="1"/>
+    <col min="23" max="23" width="14.46484375" customWidth="1"/>
+    <col min="24" max="24" width="6.6640625" customWidth="1"/>
+    <col min="25" max="25" width="3.1328125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="23.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="20.46484375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="24.33203125" customWidth="1"/>
+    <col min="32" max="32" width="17.6640625" customWidth="1"/>
+    <col min="33" max="33" width="12.6640625" customWidth="1"/>
+    <col min="34" max="34" width="26.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.45">
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A1" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="12"/>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A2" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="B2" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
-      <c r="W1" s="13"/>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.45">
-      <c r="A2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" s="5" t="s">
+      <c r="AA2" s="14"/>
+      <c r="AB2" s="14"/>
+      <c r="AC2" s="14"/>
+      <c r="AD2" s="14"/>
+      <c r="AE2" s="14"/>
+      <c r="AF2" s="14"/>
+      <c r="AG2" s="14"/>
+      <c r="AH2" s="3"/>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" t="s">
+        <v>19</v>
+      </c>
+      <c r="P5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB5" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="C6" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O6" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="U6" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="C7" s="9"/>
+      <c r="D7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" t="s">
+        <v>19</v>
+      </c>
+      <c r="O7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S7" t="s">
+        <v>19</v>
+      </c>
+      <c r="U7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="T8" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y8" s="2"/>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="C9" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="C10" s="9"/>
+      <c r="D10" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="G10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" t="s">
+        <v>19</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S10" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="C11" s="9"/>
+      <c r="D11" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P11" t="s">
+        <v>19</v>
+      </c>
+      <c r="R11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S11" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="C12" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>19</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N12" t="s">
+        <v>19</v>
+      </c>
+      <c r="O12" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>19</v>
+      </c>
+      <c r="R12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="U12" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="C13" s="9"/>
+      <c r="D13" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="M2" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="T2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="U2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="V2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="W2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="X2" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y2" s="15"/>
-      <c r="Z2" s="15"/>
-      <c r="AA2" s="15"/>
-      <c r="AB2" s="15"/>
-      <c r="AC2" s="15"/>
-      <c r="AD2" s="15"/>
-      <c r="AE2" s="15"/>
-      <c r="AF2" s="5"/>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N3" t="s">
-        <v>20</v>
-      </c>
-      <c r="W3" t="s">
-        <v>20</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" t="s">
-        <v>20</v>
-      </c>
-      <c r="N4" t="s">
-        <v>20</v>
-      </c>
-      <c r="W4" t="s">
-        <v>20</v>
-      </c>
-      <c r="X4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" t="s">
-        <v>20</v>
-      </c>
-      <c r="N5" t="s">
-        <v>20</v>
-      </c>
-      <c r="X5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z5" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.45">
-      <c r="A6" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M6" t="s">
-        <v>20</v>
-      </c>
-      <c r="O6" t="s">
-        <v>20</v>
-      </c>
-      <c r="P6" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q6" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="S6" t="s">
-        <v>20</v>
-      </c>
-      <c r="W6" t="s">
-        <v>20</v>
-      </c>
-      <c r="X6" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.45">
-      <c r="A7" s="10"/>
-      <c r="B7" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K7" t="s">
-        <v>20</v>
-      </c>
-      <c r="M7" t="s">
-        <v>20</v>
-      </c>
-      <c r="O7" t="s">
-        <v>20</v>
-      </c>
-      <c r="P7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>20</v>
-      </c>
-      <c r="S7" t="s">
-        <v>20</v>
-      </c>
-      <c r="W7" t="s">
-        <v>20</v>
-      </c>
-      <c r="X7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="K8" t="s">
-        <v>20</v>
-      </c>
-      <c r="P8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="R8" t="s">
-        <v>20</v>
-      </c>
-      <c r="W8" s="3"/>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.45">
-      <c r="A9" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.45">
-      <c r="A10" s="10"/>
-      <c r="B10" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10" t="s">
-        <v>20</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="P10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>20</v>
-      </c>
-      <c r="W10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.45">
-      <c r="A11" s="10"/>
-      <c r="B11" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11" t="s">
-        <v>20</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N11" t="s">
-        <v>20</v>
-      </c>
-      <c r="P11" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>20</v>
-      </c>
-      <c r="W11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.45">
-      <c r="A12" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H12" t="s">
-        <v>20</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L12" t="s">
-        <v>20</v>
-      </c>
-      <c r="M12" t="s">
-        <v>20</v>
-      </c>
-      <c r="O12" t="s">
-        <v>20</v>
-      </c>
-      <c r="P12" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q12" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="S12" t="s">
-        <v>20</v>
-      </c>
-      <c r="W12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.45">
-      <c r="A13" s="10"/>
-      <c r="B13" s="8" t="s">
+      <c r="G13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N13" t="s">
+        <v>19</v>
+      </c>
+      <c r="O13" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>19</v>
+      </c>
+      <c r="R13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="U13" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A14" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="O14" t="s">
+        <v>19</v>
+      </c>
+      <c r="P14" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>19</v>
+      </c>
+      <c r="R14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="U14" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z14" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="C15" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J13" s="6"/>
-      <c r="K13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L13" t="s">
-        <v>20</v>
-      </c>
-      <c r="M13" t="s">
-        <v>20</v>
-      </c>
-      <c r="O13" t="s">
-        <v>20</v>
-      </c>
-      <c r="P13" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q13" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="S13" t="s">
-        <v>20</v>
-      </c>
-      <c r="W13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
+      <c r="D15" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="G15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O15" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>19</v>
+      </c>
+      <c r="R15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="U15" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="C16" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J14" s="6"/>
-      <c r="K14" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M14" t="s">
-        <v>20</v>
-      </c>
-      <c r="O14" t="s">
-        <v>20</v>
-      </c>
-      <c r="P14" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q14" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="S14" t="s">
-        <v>20</v>
-      </c>
-      <c r="W14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
+      <c r="D16" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="L16" t="s">
+        <v>19</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O16" t="s">
+        <v>19</v>
+      </c>
+      <c r="P16" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>19</v>
+      </c>
+      <c r="R16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="U16" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A17" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C17" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J15" t="s">
-        <v>20</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M15" t="s">
-        <v>20</v>
-      </c>
-      <c r="N15" t="s">
-        <v>20</v>
-      </c>
-      <c r="O15" t="s">
-        <v>20</v>
-      </c>
-      <c r="P15" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q15" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="S15" t="s">
-        <v>20</v>
-      </c>
-      <c r="W15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
+      <c r="D17" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="F17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J17" t="s">
+        <v>19</v>
+      </c>
+      <c r="L17" t="s">
+        <v>19</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P17" t="s">
+        <v>19</v>
+      </c>
+      <c r="R17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z17" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I16" t="s">
-        <v>20</v>
-      </c>
-      <c r="J16" t="s">
-        <v>20</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N16" t="s">
-        <v>20</v>
-      </c>
-      <c r="P16" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q16" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="X16" s="2" t="s">
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="C18" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
+      <c r="D18" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="M18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P18" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z18" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K17" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="N17" t="s">
-        <v>20</v>
-      </c>
-      <c r="W17" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="X17" s="2" t="s">
+      <c r="AA18" t="s">
         <v>60</v>
       </c>
-      <c r="Y17" t="s">
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A19" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C19" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
+      <c r="D19" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="F19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J19" t="s">
+        <v>19</v>
+      </c>
+      <c r="L19" t="s">
+        <v>19</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P19" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>19</v>
+      </c>
+      <c r="R19" t="s">
+        <v>19</v>
+      </c>
+      <c r="S19" t="s">
+        <v>19</v>
+      </c>
+      <c r="U19" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z19" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I18" t="s">
-        <v>20</v>
-      </c>
-      <c r="J18" t="s">
-        <v>20</v>
-      </c>
-      <c r="K18" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="N18" t="s">
-        <v>20</v>
-      </c>
-      <c r="P18" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>20</v>
-      </c>
-      <c r="X18" s="2" t="s">
+      <c r="AA19" t="s">
         <v>64</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="AB19" t="s">
         <v>65</v>
       </c>
-      <c r="Z18" t="s">
+      <c r="AC19" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="AA18" s="6" t="s">
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="C20" s="9" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="A19" s="10" t="s">
+      <c r="D20" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="M20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R20" t="s">
+        <v>19</v>
+      </c>
+      <c r="S20" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="C21" s="9"/>
+      <c r="D21" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K19" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="P19" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>20</v>
-      </c>
-      <c r="W19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="A20" s="10"/>
-      <c r="B20" s="8" t="s">
+      <c r="M21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R21" t="s">
+        <v>19</v>
+      </c>
+      <c r="S21" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z21" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K20" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="P20" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>20</v>
-      </c>
-      <c r="W20" t="s">
-        <v>20</v>
-      </c>
-      <c r="X20" s="2" t="s">
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="C22" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
+      <c r="D22" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="M22" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P22" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z22" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K21" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="N21" t="s">
-        <v>20</v>
-      </c>
-      <c r="W21" t="s">
-        <v>20</v>
-      </c>
-      <c r="X21" s="2" t="s">
+      <c r="AA22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="C23" t="s">
         <v>74</v>
       </c>
-      <c r="Y21" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
+      <c r="D23" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="M23" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="O23" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>19</v>
+      </c>
+      <c r="R23" t="s">
+        <v>19</v>
+      </c>
+      <c r="S23" t="s">
+        <v>19</v>
+      </c>
+      <c r="U23" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="C24" t="s">
         <v>76</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K22" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M22" t="s">
-        <v>20</v>
-      </c>
-      <c r="O22" t="s">
-        <v>20</v>
-      </c>
-      <c r="P22" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>20</v>
-      </c>
-      <c r="S22" t="s">
-        <v>20</v>
-      </c>
-      <c r="W22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
+      <c r="D24" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="G24" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J24" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" t="s">
+        <v>19</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P24" t="s">
+        <v>19</v>
+      </c>
+      <c r="R24" t="s">
+        <v>19</v>
+      </c>
+      <c r="S24" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="C25" t="s">
         <v>78</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I23" t="s">
-        <v>20</v>
-      </c>
-      <c r="J23" t="s">
-        <v>20</v>
-      </c>
-      <c r="K23" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="N23" t="s">
-        <v>20</v>
-      </c>
-      <c r="P23" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>20</v>
-      </c>
-      <c r="W23" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
+      <c r="D25" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="M25" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P25" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z25" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K24" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="N24" t="s">
-        <v>20</v>
-      </c>
-      <c r="W24" t="s">
-        <v>20</v>
-      </c>
-      <c r="X24" s="2" t="s">
+      <c r="AA25" t="s">
         <v>81</v>
       </c>
-      <c r="Y24" t="s">
+      <c r="AB25" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="Z24" s="6" t="s">
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="C26" t="s">
+        <v>97</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB26" s="4"/>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A27" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C27" s="17" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="A25" t="s">
-        <v>98</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z25" s="6"/>
-    </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="A26" t="s">
+      <c r="D27" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="M27" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P27" t="s">
+        <v>19</v>
+      </c>
+      <c r="V27" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="C28" s="17"/>
+      <c r="D28" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K26" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="N26" t="s">
-        <v>20</v>
-      </c>
-      <c r="T26" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="B27" s="8" t="s">
+      <c r="F28" t="s">
+        <v>19</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J28" t="s">
+        <v>19</v>
+      </c>
+      <c r="M28" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P28" t="s">
+        <v>19</v>
+      </c>
+      <c r="R28" t="s">
+        <v>19</v>
+      </c>
+      <c r="S28" t="s">
+        <v>19</v>
+      </c>
+      <c r="V28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="C29" t="s">
         <v>86</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F27" t="s">
-        <v>20</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I27" t="s">
-        <v>20</v>
-      </c>
-      <c r="K27" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="P27" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>20</v>
-      </c>
-      <c r="T27" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="A28" t="s">
+      <c r="D29" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="G29" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J29" t="s">
+        <v>19</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N29" t="s">
+        <v>19</v>
+      </c>
+      <c r="O29" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>19</v>
+      </c>
+      <c r="R29" t="s">
+        <v>19</v>
+      </c>
+      <c r="S29" t="s">
+        <v>19</v>
+      </c>
+      <c r="U29" t="s">
+        <v>19</v>
+      </c>
+      <c r="W29" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="D30" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I28" t="s">
-        <v>20</v>
-      </c>
-      <c r="K28" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L28" t="s">
-        <v>20</v>
-      </c>
-      <c r="M28" t="s">
-        <v>20</v>
-      </c>
-      <c r="O28" t="s">
-        <v>20</v>
-      </c>
-      <c r="P28" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>20</v>
-      </c>
-      <c r="S28" t="s">
-        <v>20</v>
-      </c>
-      <c r="U28" t="s">
-        <v>20</v>
-      </c>
-      <c r="W28" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="B29" s="8" t="s">
+      <c r="I30" t="s">
+        <v>19</v>
+      </c>
+      <c r="M30" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N30" t="s">
+        <v>19</v>
+      </c>
+      <c r="O30" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>19</v>
+      </c>
+      <c r="R30" t="s">
+        <v>19</v>
+      </c>
+      <c r="S30" t="s">
+        <v>19</v>
+      </c>
+      <c r="U30" t="s">
+        <v>19</v>
+      </c>
+      <c r="W30" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="C31" t="s">
         <v>89</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H29" t="s">
-        <v>20</v>
-      </c>
-      <c r="K29" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L29" t="s">
-        <v>20</v>
-      </c>
-      <c r="M29" t="s">
-        <v>20</v>
-      </c>
-      <c r="O29" t="s">
-        <v>20</v>
-      </c>
-      <c r="P29" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>20</v>
-      </c>
-      <c r="S29" t="s">
-        <v>20</v>
-      </c>
-      <c r="U29" t="s">
-        <v>20</v>
-      </c>
-      <c r="W29" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="A30" t="s">
+      <c r="D31" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="G31" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J31" t="s">
+        <v>19</v>
+      </c>
+      <c r="M31" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="O31" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>19</v>
+      </c>
+      <c r="R31" t="s">
+        <v>19</v>
+      </c>
+      <c r="S31" t="s">
+        <v>19</v>
+      </c>
+      <c r="U31" t="s">
+        <v>19</v>
+      </c>
+      <c r="X31" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="C32" t="s">
         <v>91</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I30" t="s">
-        <v>20</v>
-      </c>
-      <c r="K30" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M30" t="s">
-        <v>20</v>
-      </c>
-      <c r="O30" t="s">
-        <v>20</v>
-      </c>
-      <c r="P30" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>20</v>
-      </c>
-      <c r="S30" t="s">
-        <v>20</v>
-      </c>
-      <c r="V30" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="A31" t="s">
+      <c r="D32" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="M32" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="O32" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>19</v>
+      </c>
+      <c r="R32" t="s">
+        <v>19</v>
+      </c>
+      <c r="S32" t="s">
+        <v>19</v>
+      </c>
+      <c r="U32" t="s">
+        <v>19</v>
+      </c>
+      <c r="X32" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="3:25" x14ac:dyDescent="0.45">
+      <c r="C33" t="s">
         <v>93</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K31" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M31" t="s">
-        <v>20</v>
-      </c>
-      <c r="O31" t="s">
-        <v>20</v>
-      </c>
-      <c r="P31" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>20</v>
-      </c>
-      <c r="S31" t="s">
-        <v>20</v>
-      </c>
-      <c r="V31" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="A32" t="s">
+      <c r="D33" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="G33" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J33" t="s">
+        <v>19</v>
+      </c>
+      <c r="M33" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="O33" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>19</v>
+      </c>
+      <c r="R33" t="s">
+        <v>19</v>
+      </c>
+      <c r="S33" t="s">
+        <v>19</v>
+      </c>
+      <c r="U33" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="3:25" x14ac:dyDescent="0.45">
+      <c r="C34" t="s">
         <v>95</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I32" t="s">
-        <v>20</v>
-      </c>
-      <c r="K32" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M32" t="s">
-        <v>20</v>
-      </c>
-      <c r="O32" t="s">
-        <v>20</v>
-      </c>
-      <c r="P32" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>20</v>
-      </c>
-      <c r="S32" t="s">
-        <v>20</v>
-      </c>
-      <c r="W32" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A33" t="s">
+      <c r="D34" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B33" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K33" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M33" t="s">
-        <v>20</v>
-      </c>
-      <c r="O33" t="s">
-        <v>20</v>
-      </c>
-      <c r="P33" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>20</v>
-      </c>
-      <c r="S33" t="s">
-        <v>20</v>
-      </c>
-      <c r="W33" t="s">
-        <v>20</v>
+      <c r="M34" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="O34" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>19</v>
+      </c>
+      <c r="R34" t="s">
+        <v>19</v>
+      </c>
+      <c r="S34" t="s">
+        <v>19</v>
+      </c>
+      <c r="U34" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="D1:W1"/>
-    <mergeCell ref="X2:AE2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A13"/>
+  <mergeCells count="7">
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="E1:Y1"/>
+    <mergeCell ref="Z2:AG2"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C12:C13"/>
   </mergeCells>
-  <conditionalFormatting sqref="L3:M5 O3:AC5 L12:AC14 L11:M11 O11:AC11 L19:AC20 L15:M18 O15:AC18 L22:AC22 L21:M21 O21:AC21 L25:AC25 L23:M24 O23:AC24 L27:AC56 L26:M26 O26:AC26 C3:J56 L6:AC10">
+  <conditionalFormatting sqref="N3:O5 Q3:AE5 N12:AE15 N11:O11 Q11:AE11 N20:AE21 N16:O19 Q16:AE19 N23:AE23 N22:O22 Q22:AE22 N26:AE26 N24:O25 Q24:AE25 N28:AE57 N27:O27 Q27:AE27 N6:AE10 E3:L57">
     <cfRule type="cellIs" dxfId="41" priority="40" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
@@ -2283,12 +2309,12 @@
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:W2 L3:M5 O3:Z5 L12:Z14 L11:M11 O11:Z11 L19:Z20 L15:M18 O15:Z18 L22:Z22 L21:M21 O21:Z21 L25:Z25 L23:M24 O23:Z24 L27:Z106 L26:M26 O26:Z26 B2:J106 L6:Z10">
+  <conditionalFormatting sqref="N2:Y2 N3:O5 Q3:AB5 N12:AB15 N11:O11 Q11:AB11 N20:AB21 N16:O19 Q16:AB19 N23:AB23 N22:O22 Q22:AB22 N26:AB26 N24:O25 Q24:AB25 N28:AB107 N27:O27 Q27:AB27 N6:AB10 D2:L107 A2">
     <cfRule type="expression" dxfId="39" priority="43">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K3:K56">
+  <conditionalFormatting sqref="M3:M57">
     <cfRule type="cellIs" dxfId="38" priority="37" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
@@ -2296,12 +2322,12 @@
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K106">
+  <conditionalFormatting sqref="M2:M107">
     <cfRule type="expression" dxfId="36" priority="39">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N3">
+  <conditionalFormatting sqref="P3">
     <cfRule type="cellIs" dxfId="35" priority="34" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
@@ -2309,12 +2335,12 @@
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N3">
+  <conditionalFormatting sqref="P3">
     <cfRule type="expression" dxfId="33" priority="36">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N4">
+  <conditionalFormatting sqref="P4">
     <cfRule type="cellIs" dxfId="32" priority="31" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
@@ -2322,12 +2348,12 @@
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N4">
+  <conditionalFormatting sqref="P4">
     <cfRule type="expression" dxfId="30" priority="33">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N5">
+  <conditionalFormatting sqref="P5">
     <cfRule type="cellIs" dxfId="29" priority="28" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
@@ -2335,12 +2361,12 @@
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N5">
+  <conditionalFormatting sqref="P5">
     <cfRule type="expression" dxfId="27" priority="30">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N11">
+  <conditionalFormatting sqref="P11">
     <cfRule type="cellIs" dxfId="26" priority="25" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
@@ -2348,12 +2374,12 @@
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N11">
+  <conditionalFormatting sqref="P11">
     <cfRule type="expression" dxfId="24" priority="27">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N15">
+  <conditionalFormatting sqref="P16">
     <cfRule type="cellIs" dxfId="23" priority="22" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
@@ -2361,12 +2387,12 @@
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N15">
+  <conditionalFormatting sqref="P16">
     <cfRule type="expression" dxfId="21" priority="24">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N16">
+  <conditionalFormatting sqref="P17">
     <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
@@ -2374,12 +2400,12 @@
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N16">
+  <conditionalFormatting sqref="P17">
     <cfRule type="expression" dxfId="18" priority="21">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N17">
+  <conditionalFormatting sqref="P18">
     <cfRule type="cellIs" dxfId="17" priority="16" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
@@ -2387,12 +2413,12 @@
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N17">
+  <conditionalFormatting sqref="P18">
     <cfRule type="expression" dxfId="15" priority="18">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N18">
+  <conditionalFormatting sqref="P19">
     <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
@@ -2400,12 +2426,12 @@
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N18">
+  <conditionalFormatting sqref="P19">
     <cfRule type="expression" dxfId="12" priority="15">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N21">
+  <conditionalFormatting sqref="P22">
     <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
@@ -2413,12 +2439,12 @@
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N21">
+  <conditionalFormatting sqref="P22">
     <cfRule type="expression" dxfId="9" priority="12">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N23">
+  <conditionalFormatting sqref="P24">
     <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
@@ -2426,12 +2452,12 @@
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N23">
+  <conditionalFormatting sqref="P24">
     <cfRule type="expression" dxfId="6" priority="9">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N24">
+  <conditionalFormatting sqref="P25">
     <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
@@ -2439,12 +2465,12 @@
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N24">
+  <conditionalFormatting sqref="P25">
     <cfRule type="expression" dxfId="3" priority="6">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N26">
+  <conditionalFormatting sqref="P27">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
@@ -2452,7 +2478,7 @@
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N26">
+  <conditionalFormatting sqref="P27">
     <cfRule type="expression" dxfId="0" priority="3">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
